--- a/Template/Template_kpi.xlsx
+++ b/Template/Template_kpi.xlsx
@@ -55,7 +55,7 @@
     <t xml:space="preserve">วันจริง</t>
   </si>
   <si>
-    <t xml:space="preserve">กรรมการ</t>
+    <t xml:space="preserve">ห้อง</t>
   </si>
   <si>
     <t xml:space="preserve">เกรดปัจจุบัน</t>
@@ -261,16 +261,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -370,52 +366,52 @@
   <dimension ref="A1:AR1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="19.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="13.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="19.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="19.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="19.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="13.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="19.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="19.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="19.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="13.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="19.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="19.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="19.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="13.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="19.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="19.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="19.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="13.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="19.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="19.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="19.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="13.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="19.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="19.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="19.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="13.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="19.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="19.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="19.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="13.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="19.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="19.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="19.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="13.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="19.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="19.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="20.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="14.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="20.83"/>
@@ -441,7 +437,7 @@
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
+      <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -450,171 +446,171 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="4"/>
-      <c r="AM2" s="4"/>
-      <c r="AN2" s="4"/>
-      <c r="AO2" s="4"/>
-      <c r="AP2" s="4"/>
-      <c r="AQ2" s="4"/>
-      <c r="AR2" s="4"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
     </row>
-    <row r="3" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+    <row r="3" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="V3" s="6" t="s">
+      <c r="V3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="W3" s="6" t="s">
+      <c r="W3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="X3" s="6" t="s">
+      <c r="X3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Y3" s="6" t="s">
+      <c r="Y3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Z3" s="6" t="s">
+      <c r="Z3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AA3" s="6" t="s">
+      <c r="AA3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AB3" s="6" t="s">
+      <c r="AB3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AC3" s="6" t="s">
+      <c r="AC3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AD3" s="6" t="s">
+      <c r="AD3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AE3" s="6" t="s">
+      <c r="AE3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AF3" s="6" t="s">
+      <c r="AF3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AG3" s="6" t="s">
+      <c r="AG3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AH3" s="6" t="s">
+      <c r="AH3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AI3" s="6" t="s">
+      <c r="AI3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AJ3" s="6" t="s">
+      <c r="AJ3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AK3" s="6" t="s">
+      <c r="AK3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AL3" s="6" t="s">
+      <c r="AL3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AM3" s="6" t="s">
+      <c r="AM3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AN3" s="6" t="s">
+      <c r="AN3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AO3" s="6" t="s">
+      <c r="AO3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AP3" s="6" t="s">
+      <c r="AP3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AQ3" s="6" t="s">
+      <c r="AQ3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AR3" s="6" t="s">
+      <c r="AR3" s="5" t="s">
         <v>44</v>
       </c>
     </row>

--- a/Template/Template_kpi.xlsx
+++ b/Template/Template_kpi.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t xml:space="preserve">รายชื่อผู้เข้าประเมินพนักงานเกรด A B</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t xml:space="preserve">ข้อเสนอแนะกรรมการ 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">สรุป Comment HR</t>
   </si>
 </sst>
 </file>
@@ -363,23 +366,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AR1048576"/>
+  <dimension ref="A1:AS1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AP1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AT4" activeCellId="0" sqref="AT4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.19"/>
@@ -387,35 +390,35 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="19.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="19.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="19.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="19.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="19.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="19.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="19.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="19.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="19.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="19.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="19.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="19.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="19.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="19.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="19.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="19.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="19.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="19.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="19.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="19.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="19.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="19.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="19.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="19.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="19.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="19.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="19.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="20.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="14.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="20.83"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="14.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="46" style="0" width="8.3"/>
   </cols>
   <sheetData>
@@ -613,6 +616,9 @@
       <c r="AR3" s="5" t="s">
         <v>44</v>
       </c>
+      <c r="AS3" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/Template/Template_kpi.xlsx
+++ b/Template/Template_kpi.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
   <si>
     <t xml:space="preserve">รายชื่อผู้เข้าประเมินพนักงานเกรด A B</t>
   </si>
@@ -158,6 +159,54 @@
   </si>
   <si>
     <t xml:space="preserve">สรุป Comment HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">รายงานสรุปผลการประเมิน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">บริษัท</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ชื่อเล่น</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ส่วนงาน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ฝ่ายงาน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">สายงาน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">หัวหน้างาน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">วันเริ่มงาน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">วันครบทดลองงาน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เกรดก่อนเทียบโครงสร้างเงินเดือน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ระดับโครงสร้างเงินเดือน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">คะแนน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ผลการประเมิน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">สถานะ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ปรับตำแหน่งเป็น</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ปรับเงิน</t>
   </si>
 </sst>
 </file>
@@ -368,7 +417,7 @@
   </sheetPr>
   <dimension ref="A1:AS1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AP1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AP1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AT4" activeCellId="0" sqref="AT4"/>
     </sheetView>
   </sheetViews>
@@ -633,4 +682,203 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AR3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="20.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="19.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="27.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="19.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="19.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="19.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="19.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="19.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="19.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="19.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="19.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="19.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="19.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="19.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="19.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="19.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="19.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="19.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="19.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="19.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="20.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="14.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="20.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="14.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="46" style="0" width="8.3"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+    </row>
+    <row r="3" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Template/Template_kpi.xlsx
+++ b/Template/Template_kpi.xlsx
@@ -5,11 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t xml:space="preserve">รายชื่อผู้เข้าประเมินพนักงานเกรด A B</t>
   </si>
@@ -159,54 +158,6 @@
   </si>
   <si>
     <t xml:space="preserve">สรุป Comment HR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">รายงานสรุปผลการประเมิน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">บริษัท</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ชื่อเล่น</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ส่วนงาน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ฝ่ายงาน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">สายงาน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">หัวหน้างาน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">วันเริ่มงาน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">วันครบทดลองงาน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">เกรดก่อนเทียบโครงสร้างเงินเดือน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ระดับโครงสร้างเงินเดือน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">คะแนน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ผลการประเมิน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">สถานะ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ปรับตำแหน่งเป็น</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ปรับเงิน</t>
   </si>
 </sst>
 </file>
@@ -417,7 +368,7 @@
   </sheetPr>
   <dimension ref="A1:AS1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AP1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AP1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AT4" activeCellId="0" sqref="AT4"/>
     </sheetView>
   </sheetViews>
@@ -682,203 +633,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AR3"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="20.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="19.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="27.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="19.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="19.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="19.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="19.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="19.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="19.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="19.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="19.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="19.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="19.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="19.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="19.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="19.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="19.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="19.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="19.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="19.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="20.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="14.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="20.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="14.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="46" style="0" width="8.3"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="3"/>
-      <c r="AP2" s="3"/>
-      <c r="AQ2" s="3"/>
-      <c r="AR2" s="3"/>
-    </row>
-    <row r="3" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/Template/Template_kpi.xlsx
+++ b/Template/Template_kpi.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
   <si>
     <t xml:space="preserve">รายชื่อผู้เข้าประเมินพนักงานเกรด A B</t>
   </si>
@@ -158,6 +159,54 @@
   </si>
   <si>
     <t xml:space="preserve">สรุป Comment HR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">รายงานสรุปผลการประเมิน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">บริษัท</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ชื่อเล่น</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ส่วนงาน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ฝ่ายงาน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">สายงาน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">หัวหน้างาน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">วันเริ่มงาน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">วันครบทดลองงาน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เกรดก่อนเทียบโครงสร้างเงินเดือน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ระดับโครงสร้างเงินเดือน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">คะแนน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ผลการประเมิน</t>
+  </si>
+  <si>
+    <t xml:space="preserve">สถานะ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ปรับตำแหน่งเป็น</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ปรับเงิน</t>
   </si>
 </sst>
 </file>
@@ -368,7 +417,7 @@
   </sheetPr>
   <dimension ref="A1:AS1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AP1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AT4" activeCellId="0" sqref="AT4"/>
     </sheetView>
   </sheetViews>
@@ -633,4 +682,203 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AR3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="20.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="19.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="27.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="19.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="19.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="19.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="19.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="19.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="19.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="19.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="19.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="19.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="19.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="19.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="19.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="19.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="19.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="19.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="19.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="19.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="20.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="14.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="20.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="14.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="46" style="0" width="8.3"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="3"/>
+    </row>
+    <row r="3" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Template/Template_kpi.xlsx
+++ b/Template/Template_kpi.xlsx
@@ -5,11 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t xml:space="preserve">รายชื่อผู้เข้าประเมินพนักงานเกรด A B</t>
   </si>
@@ -159,54 +158,6 @@
   </si>
   <si>
     <t xml:space="preserve">สรุป Comment HR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">รายงานสรุปผลการประเมิน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">บริษัท</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ชื่อเล่น</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ส่วนงาน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ฝ่ายงาน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">สายงาน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">หัวหน้างาน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">วันเริ่มงาน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">วันครบทดลองงาน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">เกรดก่อนเทียบโครงสร้างเงินเดือน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ระดับโครงสร้างเงินเดือน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">คะแนน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ผลการประเมิน</t>
-  </si>
-  <si>
-    <t xml:space="preserve">สถานะ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ปรับตำแหน่งเป็น</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ปรับเงิน</t>
   </si>
 </sst>
 </file>
@@ -417,7 +368,7 @@
   </sheetPr>
   <dimension ref="A1:AS1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AT4" activeCellId="0" sqref="AT4"/>
     </sheetView>
   </sheetViews>
@@ -682,203 +633,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AR3"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="20.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="19.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="27.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="19.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="19.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="19.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="19.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="19.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="19.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="19.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="19.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="19.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="19.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="19.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="19.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="19.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="19.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="19.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="19.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="19.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="20.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="14.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="20.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="14.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="46" style="0" width="8.3"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="3"/>
-      <c r="AP2" s="3"/>
-      <c r="AQ2" s="3"/>
-      <c r="AR2" s="3"/>
-    </row>
-    <row r="3" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>